--- a/data/trans_orig/dukeGLOBAL-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/dukeGLOBAL-Estudios-trans_orig.xlsx
@@ -681,7 +681,7 @@
         <v>44.68911364359715</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>44.53709842674659</v>
+        <v>44.5370984267466</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>44.875849566914</v>
@@ -693,7 +693,7 @@
         <v>45.16278434763986</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>44.79020690228437</v>
+        <v>44.79020690228438</v>
       </c>
     </row>
     <row r="5">
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>44.88122530292323</v>
+        <v>44.87902245977934</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>46.57561048234084</v>
+        <v>46.49231191704465</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45.2099746880148</v>
+        <v>45.22662244725656</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>44.31308811358759</v>
+        <v>44.28698784932465</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>43.86190115326173</v>
+        <v>43.87759202714889</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>46.16358378228034</v>
+        <v>46.13379713202275</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>44.17481007967724</v>
+        <v>44.14912584941906</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>43.94512566120284</v>
+        <v>43.95008277717353</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>44.52192367432494</v>
+        <v>44.49679308285614</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>46.49433120028081</v>
+        <v>46.45984397512465</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>44.7416125917442</v>
+        <v>44.71887324513239</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>44.32174883090332</v>
+        <v>44.30473179448566</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>46.05805635578017</v>
+        <v>46.03742004693199</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>47.67977926780549</v>
+        <v>47.60872642758287</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>46.31761723260797</v>
+        <v>46.36210621232438</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>45.975541281392</v>
+        <v>45.96122490817199</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>44.91980831566904</v>
+        <v>44.91593620722595</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>47.05247081947746</v>
+        <v>47.03894205727257</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>45.27907203438467</v>
+        <v>45.19958030239073</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>45.06739775135811</v>
+        <v>45.06658049129687</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>45.25099449975168</v>
+        <v>45.24568343255412</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>47.18657304662172</v>
+        <v>47.15129295264109</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>45.53695041577745</v>
+        <v>45.57107250740919</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>45.28207178207911</v>
+        <v>45.26786375131327</v>
       </c>
     </row>
     <row r="7">
@@ -805,7 +805,7 @@
         <v>46.82528775333297</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>48.27730578565094</v>
+        <v>48.27730578565095</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>47.63916377908668</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>48.20851532212001</v>
+        <v>48.25875308465336</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>48.50496372658271</v>
+        <v>48.48559926930047</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>46.49937402276631</v>
+        <v>46.49650431234587</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>47.90594044843942</v>
+        <v>47.91399498247895</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>47.25635781872307</v>
+        <v>47.2205724867638</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>47.3517527647647</v>
+        <v>47.41755769146969</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>46.49002424894174</v>
+        <v>46.51283916479576</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>47.55308037185229</v>
+        <v>47.59363198292077</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>47.85729266577185</v>
+        <v>47.86678419299806</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>48.0913867008216</v>
+        <v>48.06814386235819</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>46.57872675417691</v>
+        <v>46.59321546146933</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>47.86519388791619</v>
+        <v>47.87419212853263</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>48.90243061394537</v>
+        <v>48.89765060315731</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>49.0852874006769</v>
+        <v>49.11011491868193</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>47.11697123660864</v>
+        <v>47.11173611266828</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>48.60959011960389</v>
+        <v>48.62761957915416</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>48.0669219791471</v>
+        <v>47.98240558115381</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>48.10057369620979</v>
+        <v>48.12084530564372</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>47.09696513151307</v>
+        <v>47.11073416937791</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>48.22962159904385</v>
+        <v>48.23831286111691</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>48.40400928770745</v>
+        <v>48.39369365377568</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>48.5476906521221</v>
+        <v>48.53652500007276</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>47.02250178099467</v>
+        <v>47.04859122873361</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>48.35314860154503</v>
+        <v>48.35070631901264</v>
       </c>
     </row>
     <row r="10">
@@ -965,7 +965,7 @@
         <v>48.58867138577578</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>49.83682747761199</v>
+        <v>49.83682747761198</v>
       </c>
     </row>
     <row r="11">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>48.02787719320141</v>
+        <v>48.01709706423789</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>48.7391996256789</v>
+        <v>48.73259164438234</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>48.03511966562668</v>
+        <v>48.04280828897165</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>48.97254547989205</v>
+        <v>48.97197973175341</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>47.88954242373132</v>
+        <v>47.91413581590775</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>49.24655103838215</v>
+        <v>49.26586258806375</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>48.02385834564837</v>
+        <v>47.97293877810326</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>49.70217720083861</v>
+        <v>49.69046199272567</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>48.14433471693543</v>
+        <v>48.19984536480823</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>49.1628444332292</v>
+        <v>49.23459245803418</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>48.2136255754479</v>
+        <v>48.19045178973416</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>49.45274242262151</v>
+        <v>49.43999515674356</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>49.24951274864103</v>
+        <v>49.34012240990664</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>50.07491954515878</v>
+        <v>50.07508525829198</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>49.05657475285551</v>
+        <v>49.11714359215303</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>50.10985957815904</v>
+        <v>50.11641489475488</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>49.29729172143301</v>
+        <v>49.35920667481376</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>50.41291672289591</v>
+        <v>50.3754244474356</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>49.06347557340737</v>
+        <v>49.12414507192022</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>50.49969977803755</v>
+        <v>50.50154599788814</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>49.11622954570433</v>
+        <v>49.13687245306224</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>50.07539112592828</v>
+        <v>50.10523059277167</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>48.9336102247624</v>
+        <v>48.94457876199294</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>50.15528058494211</v>
+        <v>50.16877670277128</v>
       </c>
     </row>
     <row r="13">
@@ -1080,7 +1080,7 @@
         <v>48.02325007069888</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>46.52293674809259</v>
+        <v>46.5229367480926</v>
       </c>
       <c r="H13" s="5" t="n">
         <v>47.6036442967237</v>
@@ -1101,7 +1101,7 @@
         <v>46.67929767915591</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>47.8191489140743</v>
+        <v>47.81914891407431</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>47.33932048796888</v>
+        <v>47.31147184541169</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>48.15046915306178</v>
+        <v>48.17915462307891</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>46.63563762387725</v>
+        <v>46.63903253877167</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>47.69423889937088</v>
+        <v>47.72812519289138</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>46.20186022897757</v>
+        <v>46.20495640376781</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>47.38053690702537</v>
+        <v>47.34185322140962</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>46.2424217367263</v>
+        <v>46.23114014105103</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>47.3988599389532</v>
+        <v>47.3859030751477</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>46.84986550963301</v>
+        <v>46.85043749593664</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>47.80645419699218</v>
+        <v>47.79897578145005</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>46.50043683669706</v>
+        <v>46.5053276270879</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>47.64187006909062</v>
+        <v>47.63313354079015</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>47.89125912366187</v>
+        <v>47.86929049061957</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>48.64156587257325</v>
+        <v>48.68162593041902</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>47.12309802742663</v>
+        <v>47.11243856237993</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>48.31502616020428</v>
+        <v>48.31314917751818</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>46.7903746855938</v>
+        <v>46.81176203787442</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>47.88091235506284</v>
+        <v>47.84443256329269</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>46.70994302982239</v>
+        <v>46.73611892972917</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>47.84539093033857</v>
+        <v>47.85356749870079</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>47.25441942053771</v>
+        <v>47.25711350287192</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>48.17374506693947</v>
+        <v>48.17141951540457</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>46.85543196738535</v>
+        <v>46.84607865598887</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>48.02302413251081</v>
+        <v>48.01786849493313</v>
       </c>
     </row>
     <row r="16">
